--- a/zeiten.xlsx
+++ b/zeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/Programmierung/GitHub/DataScience/crypto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/Programmierung/GitHub/Crypto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{021ADA3F-C6CB-4540-94DB-9CCB2D6E288B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E35273-0419-5943-BD7E-B4AB5EE5CF58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28240" windowHeight="17540" xr2:uid="{4901B00B-886B-C844-9086-97223483347D}"/>
+    <workbookView xWindow="13380" yWindow="460" windowWidth="15420" windowHeight="17540" xr2:uid="{4901B00B-886B-C844-9086-97223483347D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>h</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Jan 2020 00:00Uhr</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Millsec time</t>
+  </si>
+  <si>
+    <t>2. Jan 2020 00:00Uhr</t>
   </si>
 </sst>
 </file>
@@ -111,13 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -432,16 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7C10CA-7A65-354F-9110-67D4D55844FF}">
-  <dimension ref="D18:P38"/>
+  <dimension ref="D18:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,17 +573,84 @@
         <v>1577836800000</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E37" s="4">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="8">
+        <v>43833</v>
+      </c>
+      <c r="H36" s="8">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="6">
         <v>1577836800000</v>
       </c>
       <c r="F37" s="2">
+        <f>E37+H24</f>
+        <v>1577923200000</v>
+      </c>
+      <c r="G37" s="7">
+        <f>E37+(H24*2)</f>
+        <v>1578009600000</v>
+      </c>
+      <c r="H37" s="7">
         <f>E37+(H24*3)</f>
         <v>1578096000000</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F38" s="5"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E41" s="6">
+        <f>E37</f>
+        <v>1577836800000</v>
+      </c>
+      <c r="F41" s="2">
+        <f>F37</f>
+        <v>1577923200000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="2">
+        <f>F37</f>
+        <v>1577923200000</v>
+      </c>
+      <c r="F42" s="2">
+        <f>G37</f>
+        <v>1578009600000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
+        <f>F42</f>
+        <v>1578009600000</v>
+      </c>
+      <c r="F43" s="2">
+        <f>H37</f>
+        <v>1578096000000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>259200000</v>
+      </c>
+      <c r="F47">
+        <f>E47/H24</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
